--- a/AgilePM/RetrospectiveIdeation.xlsx
+++ b/AgilePM/RetrospectiveIdeation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>Anodiam</t>
   </si>
@@ -46,9 +51,6 @@
     <t>AC</t>
   </si>
   <si>
-    <t>Initial version</t>
-  </si>
-  <si>
     <t>Review Retrospective Ideation</t>
   </si>
   <si>
@@ -221,13 +223,72 @@
   </si>
   <si>
     <t>ID22</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>Design Thinking Training</t>
+  </si>
+  <si>
+    <t>CSS Training</t>
+  </si>
+  <si>
+    <t>Product Backlog Training</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aGn_DCzGvro
+https://youtu.be/gHGN6hs2gZY
+https://youtu.be/MDY8IZX3IXY</t>
+  </si>
+  <si>
+    <t>DN needs to do this by 10/7/2020</t>
+  </si>
+  <si>
+    <t>All need to do this by 13/07/2020</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yfoY53QXEnI</t>
+  </si>
+  <si>
+    <t>(7hrs X 5 days) a week - time offs</t>
+  </si>
+  <si>
+    <t>DN needs to do this by 07/7/2020</t>
+  </si>
+  <si>
+    <t>Sprint Planning Meeting</t>
+  </si>
+  <si>
+    <t>Testing Training</t>
+  </si>
+  <si>
+    <t>AM to plan by 09/07/2020/</t>
+  </si>
+  <si>
+    <t>Testing Training Plan</t>
+  </si>
+  <si>
+    <t>All need to do this by 18/07/2020</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Hours Commitment</t>
+  </si>
+  <si>
+    <t>Retrospective of Sprint 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -281,6 +342,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -336,10 +403,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,6 +436,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,13 +448,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -586,17 +681,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -605,34 +700,34 @@
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -649,36 +744,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D5" s="8">
-        <v>44002</v>
+        <v>44019</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -696,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -704,471 +801,490 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A23"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21" style="11" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
     <col min="9" max="9" width="23" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="20">
+        <v>44019</v>
+      </c>
+      <c r="E2" s="19">
+        <v>5</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="20">
+        <v>44019</v>
+      </c>
+      <c r="E3" s="19">
+        <v>4</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="20">
+        <v>44019</v>
+      </c>
+      <c r="E4" s="19">
+        <v>4</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20">
+        <v>44019</v>
+      </c>
+      <c r="E5" s="19">
+        <v>5</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20">
+        <v>44019</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="B7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20">
+        <v>44019</v>
+      </c>
+      <c r="E7" s="19">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>34</v>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1184,20 +1300,23 @@
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="11" bestFit="1" customWidth="1"/>
@@ -1210,42 +1329,42 @@
     <col min="10" max="16384" width="14.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>45</v>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9">
@@ -1255,16 +1374,16 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9">
@@ -1274,16 +1393,16 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
@@ -1293,16 +1412,16 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
@@ -1312,16 +1431,16 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
@@ -1331,16 +1450,16 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
@@ -1350,16 +1469,16 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
@@ -1369,16 +1488,16 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
@@ -1388,16 +1507,16 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -1407,16 +1526,16 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
@@ -1426,16 +1545,16 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
@@ -1445,16 +1564,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
@@ -1464,16 +1583,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
@@ -1483,16 +1602,16 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
@@ -1502,16 +1621,16 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
@@ -1521,16 +1640,16 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
@@ -1540,16 +1659,16 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
@@ -1559,16 +1678,16 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
@@ -1578,16 +1697,16 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
@@ -1597,16 +1716,16 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
@@ -1616,16 +1735,16 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
@@ -1635,16 +1754,16 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
@@ -1654,7 +1773,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/AgilePM/RetrospectiveIdeation.xlsx
+++ b/AgilePM/RetrospectiveIdeation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
   <si>
     <t>Anodiam</t>
   </si>
@@ -282,6 +282,16 @@
   </si>
   <si>
     <t>Retrospective of Sprint 1</t>
+  </si>
+  <si>
+    <t>Git Checkin Check out</t>
+  </si>
+  <si>
+    <t>We should always checkout file from Git before begining any work
+We should always checkin file to Git after saving any work</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
@@ -437,17 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -466,6 +465,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,31 +711,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -801,7 +811,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -846,239 +856,249 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15">
         <v>44019</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="14">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15">
         <v>44019</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>4</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="15">
         <v>44019</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15">
         <v>44019</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="14">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15">
         <v>44019</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>4</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="15">
         <v>44019</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <v>4</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="B8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="15">
+        <v>44019</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/AgilePM/RetrospectiveIdeation.xlsx
+++ b/AgilePM/RetrospectiveIdeation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>Anodiam</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>WIP</t>
+  </si>
+  <si>
+    <t>Financial Transactions Feasibility Analysis</t>
+  </si>
+  <si>
+    <t>Byjus.com</t>
+  </si>
+  <si>
+    <t>Find out how many ways of financial transaction feasible. Like Bpay, PayPal etc. DN to check this out by 18/07/2020</t>
   </si>
 </sst>
 </file>
@@ -417,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -476,6 +485,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1333,7 +1354,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1378,250 +1399,236 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>20</v>
+      <c r="B2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="26">
+        <v>44019</v>
+      </c>
+      <c r="E2" s="25">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1634,9 +1641,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1653,9 +1658,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1672,9 +1675,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1691,9 +1692,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1710,9 +1709,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1729,9 +1726,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1748,9 +1743,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1767,9 +1760,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1786,9 +1777,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>

--- a/AgilePM/RetrospectiveIdeation.xlsx
+++ b/AgilePM/RetrospectiveIdeation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -474,6 +474,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,18 +497,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -718,8 +718,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -732,31 +732,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -830,9 +830,9 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,235 +1400,235 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="C2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="21">
         <v>44019</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="20">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
         <v>20</v>
       </c>
     </row>

--- a/AgilePM/RetrospectiveIdeation.xlsx
+++ b/AgilePM/RetrospectiveIdeation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>Anodiam</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Find out how many ways of financial transaction feasible. Like Bpay, PayPal etc. DN to check this out by 18/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cgZ7roXauNw&amp;list=PL7saoWAQ-9B5T8HmKTl4fRNPaEhdqOmgf&amp;index=1</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,6 +500,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,7 +838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
@@ -1084,7 +1090,9 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="I9" s="14" t="s">
         <v>20</v>
       </c>
@@ -1343,9 +1351,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/AgilePM/RetrospectiveIdeation.xlsx
+++ b/AgilePM/RetrospectiveIdeation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>Anodiam</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cgZ7roXauNw&amp;list=PL7saoWAQ-9B5T8HmKTl4fRNPaEhdqOmgf&amp;index=1</t>
+  </si>
+  <si>
+    <t>Sample Java Project</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5wZWAqEwBj8</t>
+  </si>
+  <si>
+    <t>Google Recaptcha Spring Boot</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -489,6 +498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,9 +512,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -738,31 +748,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -838,7 +848,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1089,8 +1099,10 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="28" t="s">
+      <c r="G9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>91</v>
       </c>
       <c r="I9" s="14" t="s">
@@ -1108,8 +1120,12 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="I10" s="14" t="s">
         <v>20</v>
       </c>
@@ -1352,9 +1368,10 @@
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
     <hyperlink ref="H9" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/AgilePM/RetrospectiveIdeation.xlsx
+++ b/AgilePM/RetrospectiveIdeation.xlsx
@@ -501,6 +501,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,7 +513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -748,31 +748,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -848,7 +848,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1123,7 @@
       <c r="G10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="24" t="s">
         <v>93</v>
       </c>
       <c r="I10" s="14" t="s">
